--- a/Data/ROY Data/rookies_11_12.xlsx
+++ b/Data/ROY Data/rookies_11_12.xlsx
@@ -1002,76 +1002,73 @@
         <v>22</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>388</v>
+        <v>41</v>
       </c>
       <c r="H2">
-        <v>6905</v>
+        <v>624</v>
       </c>
       <c r="I2">
-        <v>828</v>
+        <v>79</v>
       </c>
       <c r="J2">
-        <v>1758</v>
+        <v>167</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="N2">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="O2">
-        <v>715</v>
+        <v>47</v>
       </c>
       <c r="P2">
-        <v>1843</v>
+        <v>171</v>
       </c>
       <c r="Q2">
-        <v>384</v>
+        <v>34</v>
       </c>
       <c r="R2">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="S2">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="T2">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="U2">
-        <v>706</v>
+        <v>73</v>
       </c>
       <c r="V2">
-        <v>1847</v>
+        <v>169</v>
       </c>
       <c r="W2">
-        <v>0.471</v>
-      </c>
-      <c r="X2">
-        <v>0.133</v>
+        <v>0.473</v>
       </c>
       <c r="Y2">
-        <v>0.6820000000000001</v>
+        <v>0.786</v>
       </c>
       <c r="Z2">
-        <v>17.8</v>
+        <v>15.2</v>
       </c>
       <c r="AA2">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="AB2">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD2" t="s">
         <v>172</v>
@@ -1094,19 +1091,19 @@
         <v>26</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="H3">
-        <v>2251</v>
+        <v>1088</v>
       </c>
       <c r="I3">
-        <v>284</v>
+        <v>140</v>
       </c>
       <c r="J3">
-        <v>530</v>
+        <v>261</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1115,34 +1112,34 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="N3">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="O3">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="P3">
-        <v>589</v>
+        <v>265</v>
       </c>
       <c r="Q3">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="R3">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="S3">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="T3">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="U3">
-        <v>272</v>
+        <v>118</v>
       </c>
       <c r="V3">
-        <v>635</v>
+        <v>319</v>
       </c>
       <c r="W3">
         <v>0.536</v>
@@ -1151,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.504</v>
+        <v>0.619</v>
       </c>
       <c r="Z3">
-        <v>16.7</v>
+        <v>20.1</v>
       </c>
       <c r="AA3">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="AB3">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="AC3">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD3" t="s">
         <v>172</v>
@@ -1272,76 +1269,73 @@
         <v>19</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>636</v>
+        <v>63</v>
       </c>
       <c r="H5">
-        <v>12864</v>
+        <v>1455</v>
       </c>
       <c r="I5">
-        <v>1232</v>
+        <v>129</v>
       </c>
       <c r="J5">
-        <v>2367</v>
+        <v>278</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>809</v>
+        <v>69</v>
       </c>
       <c r="N5">
-        <v>1408</v>
+        <v>143</v>
       </c>
       <c r="O5">
-        <v>1255</v>
+        <v>113</v>
       </c>
       <c r="P5">
-        <v>3968</v>
+        <v>368</v>
       </c>
       <c r="Q5">
-        <v>338</v>
+        <v>27</v>
       </c>
       <c r="R5">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="S5">
-        <v>852</v>
+        <v>115</v>
       </c>
       <c r="T5">
-        <v>577</v>
+        <v>71</v>
       </c>
       <c r="U5">
-        <v>1408</v>
+        <v>145</v>
       </c>
       <c r="V5">
-        <v>3273</v>
+        <v>327</v>
       </c>
       <c r="W5">
-        <v>0.52</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
+        <v>0.464</v>
       </c>
       <c r="Y5">
-        <v>0.575</v>
+        <v>0.483</v>
       </c>
       <c r="Z5">
-        <v>20.2</v>
+        <v>23.1</v>
       </c>
       <c r="AA5">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AB5">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AC5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD5" t="s">
         <v>172</v>
@@ -1364,76 +1358,76 @@
         <v>23</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6">
+        <v>56</v>
+      </c>
+      <c r="H6">
+        <v>1648</v>
+      </c>
+      <c r="I6">
+        <v>274</v>
+      </c>
+      <c r="J6">
+        <v>640</v>
+      </c>
+      <c r="K6">
+        <v>47</v>
+      </c>
+      <c r="L6">
+        <v>150</v>
+      </c>
+      <c r="M6">
+        <v>113</v>
+      </c>
+      <c r="N6">
+        <v>148</v>
+      </c>
+      <c r="O6">
+        <v>70</v>
+      </c>
+      <c r="P6">
         <v>200</v>
       </c>
-      <c r="H6">
-        <v>3456</v>
-      </c>
-      <c r="I6">
-        <v>613</v>
-      </c>
-      <c r="J6">
-        <v>1371</v>
-      </c>
-      <c r="K6">
-        <v>109</v>
-      </c>
-      <c r="L6">
-        <v>316</v>
-      </c>
-      <c r="M6">
-        <v>257</v>
-      </c>
-      <c r="N6">
-        <v>342</v>
-      </c>
-      <c r="O6">
-        <v>132</v>
-      </c>
-      <c r="P6">
-        <v>424</v>
-      </c>
       <c r="Q6">
-        <v>282</v>
+        <v>131</v>
       </c>
       <c r="R6">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="S6">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="T6">
-        <v>248</v>
+        <v>118</v>
       </c>
       <c r="U6">
-        <v>269</v>
+        <v>116</v>
       </c>
       <c r="V6">
-        <v>1592</v>
+        <v>708</v>
       </c>
       <c r="W6">
-        <v>0.447</v>
+        <v>0.428</v>
       </c>
       <c r="X6">
-        <v>0.345</v>
+        <v>0.313</v>
       </c>
       <c r="Y6">
-        <v>0.751</v>
+        <v>0.764</v>
       </c>
       <c r="Z6">
-        <v>17.3</v>
+        <v>29.4</v>
       </c>
       <c r="AA6">
-        <v>8</v>
+        <v>12.6</v>
       </c>
       <c r="AB6">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="AC6">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="AD6" t="s">
         <v>172</v>
@@ -1456,76 +1450,76 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>488</v>
+        <v>59</v>
       </c>
       <c r="H7">
-        <v>10664</v>
+        <v>939</v>
       </c>
       <c r="I7">
-        <v>1698</v>
+        <v>153</v>
       </c>
       <c r="J7">
-        <v>4047</v>
+        <v>357</v>
       </c>
       <c r="K7">
-        <v>389</v>
+        <v>15</v>
       </c>
       <c r="L7">
-        <v>1086</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>1195</v>
+        <v>104</v>
       </c>
       <c r="N7">
-        <v>1509</v>
+        <v>143</v>
       </c>
       <c r="O7">
-        <v>297</v>
+        <v>57</v>
       </c>
       <c r="P7">
-        <v>1566</v>
+        <v>132</v>
       </c>
       <c r="Q7">
-        <v>900</v>
+        <v>55</v>
       </c>
       <c r="R7">
-        <v>318</v>
+        <v>27</v>
       </c>
       <c r="S7">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="T7">
-        <v>622</v>
+        <v>51</v>
       </c>
       <c r="U7">
-        <v>859</v>
+        <v>84</v>
       </c>
       <c r="V7">
-        <v>4980</v>
+        <v>425</v>
       </c>
       <c r="W7">
-        <v>0.42</v>
+        <v>0.429</v>
       </c>
       <c r="X7">
-        <v>0.358</v>
+        <v>0.333</v>
       </c>
       <c r="Y7">
-        <v>0.792</v>
+        <v>0.727</v>
       </c>
       <c r="Z7">
-        <v>21.9</v>
+        <v>15.9</v>
       </c>
       <c r="AA7">
-        <v>10.2</v>
+        <v>7.2</v>
       </c>
       <c r="AB7">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="AC7">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD7" t="s">
         <v>172</v>
@@ -1548,76 +1542,76 @@
         <v>22</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>577</v>
+        <v>42</v>
       </c>
       <c r="H8">
-        <v>19080</v>
+        <v>359</v>
       </c>
       <c r="I8">
-        <v>3190</v>
+        <v>32</v>
       </c>
       <c r="J8">
-        <v>7030</v>
+        <v>79</v>
       </c>
       <c r="K8">
-        <v>504</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1512</v>
+        <v>11</v>
       </c>
       <c r="M8">
-        <v>2939</v>
+        <v>43</v>
       </c>
       <c r="N8">
-        <v>3521</v>
+        <v>56</v>
       </c>
       <c r="O8">
-        <v>866</v>
+        <v>23</v>
       </c>
       <c r="P8">
-        <v>2936</v>
+        <v>56</v>
       </c>
       <c r="Q8">
-        <v>2136</v>
+        <v>14</v>
       </c>
       <c r="R8">
-        <v>914</v>
+        <v>11</v>
       </c>
       <c r="S8">
-        <v>275</v>
+        <v>5</v>
       </c>
       <c r="T8">
-        <v>883</v>
+        <v>14</v>
       </c>
       <c r="U8">
-        <v>830</v>
+        <v>20</v>
       </c>
       <c r="V8">
-        <v>9823</v>
+        <v>109</v>
       </c>
       <c r="W8">
-        <v>0.454</v>
+        <v>0.405</v>
       </c>
       <c r="X8">
-        <v>0.333</v>
+        <v>0.182</v>
       </c>
       <c r="Y8">
-        <v>0.835</v>
+        <v>0.768</v>
       </c>
       <c r="Z8">
-        <v>33.1</v>
+        <v>8.5</v>
       </c>
       <c r="AA8">
-        <v>17</v>
+        <v>2.6</v>
       </c>
       <c r="AB8">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="AC8">
-        <v>3.7</v>
+        <v>0.3</v>
       </c>
       <c r="AD8" t="s">
         <v>172</v>
@@ -1732,76 +1726,76 @@
         <v>23</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>360</v>
+        <v>65</v>
       </c>
       <c r="H10">
-        <v>8018</v>
+        <v>1260</v>
       </c>
       <c r="I10">
-        <v>1005</v>
+        <v>177</v>
       </c>
       <c r="J10">
-        <v>2469</v>
+        <v>450</v>
       </c>
       <c r="K10">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="L10">
-        <v>639</v>
+        <v>76</v>
       </c>
       <c r="M10">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="N10">
-        <v>389</v>
+        <v>85</v>
       </c>
       <c r="O10">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="P10">
-        <v>702</v>
+        <v>91</v>
       </c>
       <c r="Q10">
-        <v>981</v>
+        <v>133</v>
       </c>
       <c r="R10">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="S10">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>517</v>
+        <v>105</v>
       </c>
       <c r="U10">
-        <v>679</v>
+        <v>124</v>
       </c>
       <c r="V10">
-        <v>2506</v>
+        <v>441</v>
       </c>
       <c r="W10">
-        <v>0.407</v>
+        <v>0.393</v>
       </c>
       <c r="X10">
-        <v>0.324</v>
+        <v>0.276</v>
       </c>
       <c r="Y10">
-        <v>0.743</v>
+        <v>0.776</v>
       </c>
       <c r="Z10">
-        <v>22.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA10">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AB10">
+        <v>1.4</v>
+      </c>
+      <c r="AC10">
         <v>2</v>
-      </c>
-      <c r="AC10">
-        <v>2.7</v>
       </c>
       <c r="AD10" t="s">
         <v>172</v>
@@ -1913,19 +1907,19 @@
         <v>26</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H12">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I12">
         <v>10</v>
       </c>
       <c r="J12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1964,7 +1958,7 @@
         <v>26</v>
       </c>
       <c r="W12">
-        <v>0.333</v>
+        <v>0.357</v>
       </c>
       <c r="X12">
         <v>0.143</v>
@@ -1973,16 +1967,16 @@
         <v>0.667</v>
       </c>
       <c r="Z12">
-        <v>11.9</v>
+        <v>15.2</v>
       </c>
       <c r="AA12">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AC12">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AD12" t="s">
         <v>172</v>
@@ -2097,76 +2091,73 @@
         <v>22</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>478</v>
+        <v>46</v>
       </c>
       <c r="H14">
-        <v>11728</v>
+        <v>1037</v>
       </c>
       <c r="I14">
-        <v>2190</v>
+        <v>181</v>
       </c>
       <c r="J14">
-        <v>4009</v>
+        <v>309</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1040</v>
+        <v>109</v>
       </c>
       <c r="N14">
-        <v>1590</v>
+        <v>164</v>
       </c>
       <c r="O14">
-        <v>1465</v>
+        <v>142</v>
       </c>
       <c r="P14">
-        <v>3884</v>
+        <v>352</v>
       </c>
       <c r="Q14">
-        <v>470</v>
+        <v>36</v>
       </c>
       <c r="R14">
-        <v>351</v>
+        <v>34</v>
       </c>
       <c r="S14">
-        <v>392</v>
+        <v>47</v>
       </c>
       <c r="T14">
-        <v>626</v>
+        <v>54</v>
       </c>
       <c r="U14">
-        <v>1180</v>
+        <v>116</v>
       </c>
       <c r="V14">
-        <v>5430</v>
+        <v>471</v>
       </c>
       <c r="W14">
-        <v>0.546</v>
-      </c>
-      <c r="X14">
-        <v>0.222</v>
+        <v>0.586</v>
       </c>
       <c r="Y14">
-        <v>0.654</v>
+        <v>0.665</v>
       </c>
       <c r="Z14">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="AA14">
-        <v>11.4</v>
+        <v>10.2</v>
       </c>
       <c r="AB14">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD14" t="s">
         <v>172</v>
@@ -2367,76 +2358,76 @@
         <v>22</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>241</v>
+        <v>61</v>
       </c>
       <c r="H17">
-        <v>3213</v>
+        <v>1135</v>
       </c>
       <c r="I17">
-        <v>524</v>
+        <v>172</v>
       </c>
       <c r="J17">
-        <v>1282</v>
+        <v>446</v>
       </c>
       <c r="K17">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="L17">
-        <v>519</v>
+        <v>216</v>
       </c>
       <c r="M17">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="N17">
-        <v>224</v>
+        <v>48</v>
       </c>
       <c r="O17">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="P17">
-        <v>243</v>
+        <v>73</v>
       </c>
       <c r="Q17">
-        <v>331</v>
+        <v>108</v>
       </c>
       <c r="R17">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="S17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="T17">
-        <v>223</v>
+        <v>67</v>
       </c>
       <c r="U17">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="V17">
-        <v>1438</v>
+        <v>462</v>
       </c>
       <c r="W17">
-        <v>0.409</v>
+        <v>0.386</v>
       </c>
       <c r="X17">
-        <v>0.372</v>
+        <v>0.361</v>
       </c>
       <c r="Y17">
-        <v>0.879</v>
+        <v>0.833</v>
       </c>
       <c r="Z17">
-        <v>13.3</v>
+        <v>18.6</v>
       </c>
       <c r="AA17">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AC17">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AD17" t="s">
         <v>172</v>
@@ -2548,73 +2539,73 @@
         <v>23</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H19">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="I19">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J19">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="K19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L19">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N19">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P19">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R19">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="U19">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V19">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="W19">
-        <v>0.393</v>
+        <v>0.391</v>
       </c>
       <c r="X19">
-        <v>0.345</v>
+        <v>0.373</v>
       </c>
       <c r="Y19">
-        <v>0.875</v>
+        <v>0.917</v>
       </c>
       <c r="Z19">
-        <v>9.699999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AA19">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="AB19">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AC19">
         <v>0.5</v>
@@ -2640,73 +2631,73 @@
         <v>21</v>
       </c>
       <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>26</v>
+      </c>
+      <c r="H20">
+        <v>258</v>
+      </c>
+      <c r="I20">
+        <v>48</v>
+      </c>
+      <c r="J20">
+        <v>111</v>
+      </c>
+      <c r="K20">
+        <v>17</v>
+      </c>
+      <c r="L20">
+        <v>47</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
         <v>5</v>
       </c>
-      <c r="G20">
-        <v>151</v>
-      </c>
-      <c r="H20">
-        <v>2100</v>
-      </c>
-      <c r="I20">
-        <v>342</v>
-      </c>
-      <c r="J20">
-        <v>839</v>
-      </c>
-      <c r="K20">
-        <v>137</v>
-      </c>
-      <c r="L20">
-        <v>384</v>
-      </c>
-      <c r="M20">
-        <v>69</v>
-      </c>
-      <c r="N20">
-        <v>103</v>
-      </c>
       <c r="O20">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="P20">
-        <v>429</v>
+        <v>62</v>
       </c>
       <c r="Q20">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="R20">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="S20">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="T20">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="U20">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="V20">
-        <v>890</v>
+        <v>115</v>
       </c>
       <c r="W20">
-        <v>0.408</v>
+        <v>0.432</v>
       </c>
       <c r="X20">
-        <v>0.357</v>
+        <v>0.362</v>
       </c>
       <c r="Y20">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="Z20">
-        <v>13.9</v>
+        <v>9.9</v>
       </c>
       <c r="AA20">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="AB20">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AC20">
         <v>0.8</v>
@@ -2732,76 +2723,76 @@
         <v>22</v>
       </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>84</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+      <c r="J21">
+        <v>31</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>13</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
         <v>3</v>
       </c>
-      <c r="G21">
-        <v>22</v>
-      </c>
-      <c r="H21">
-        <v>150</v>
-      </c>
-      <c r="I21">
-        <v>18</v>
-      </c>
-      <c r="J21">
-        <v>53</v>
-      </c>
-      <c r="K21">
-        <v>8</v>
-      </c>
-      <c r="L21">
-        <v>29</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>3</v>
-      </c>
-      <c r="O21">
-        <v>5</v>
-      </c>
       <c r="P21">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S21">
         <v>3</v>
       </c>
       <c r="T21">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="U21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V21">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="W21">
-        <v>0.34</v>
+        <v>0.29</v>
       </c>
       <c r="X21">
-        <v>0.276</v>
+        <v>0.154</v>
       </c>
       <c r="Y21">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AA21">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AC21">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD21" t="s">
         <v>172</v>
@@ -2824,73 +2815,73 @@
         <v>22</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>888</v>
+        <v>540</v>
       </c>
       <c r="I22">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="J22">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="K22">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="L22">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N22">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="O22">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="P22">
-        <v>227</v>
+        <v>144</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="R22">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S22">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="T22">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="U22">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="V22">
-        <v>265</v>
+        <v>162</v>
       </c>
       <c r="W22">
-        <v>0.438</v>
+        <v>0.423</v>
       </c>
       <c r="X22">
-        <v>0.347</v>
+        <v>0.339</v>
       </c>
       <c r="Y22">
-        <v>0.629</v>
+        <v>0.615</v>
       </c>
       <c r="Z22">
-        <v>11.8</v>
+        <v>14.6</v>
       </c>
       <c r="AA22">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="AB22">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="AC22">
         <v>0.3</v>
@@ -2916,76 +2907,76 @@
         <v>24</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="H23">
-        <v>455</v>
+        <v>318</v>
       </c>
       <c r="I23">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J23">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="K23">
         <v>8</v>
       </c>
       <c r="L23">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M23">
+        <v>14</v>
+      </c>
+      <c r="N23">
         <v>21</v>
       </c>
-      <c r="N23">
-        <v>31</v>
-      </c>
       <c r="O23">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P23">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="Q23">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="R23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="U23">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="V23">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="W23">
-        <v>0.3</v>
+        <v>0.349</v>
       </c>
       <c r="X23">
-        <v>0.17</v>
+        <v>0.205</v>
       </c>
       <c r="Y23">
-        <v>0.677</v>
+        <v>0.667</v>
       </c>
       <c r="Z23">
-        <v>10.8</v>
+        <v>14.5</v>
       </c>
       <c r="AA23">
+        <v>3.6</v>
+      </c>
+      <c r="AB23">
         <v>2.3</v>
       </c>
-      <c r="AB23">
-        <v>1.8</v>
-      </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AD23" t="s">
         <v>172</v>
@@ -3008,76 +2999,76 @@
         <v>19</v>
       </c>
       <c r="F24">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>611</v>
+        <v>42</v>
       </c>
       <c r="H24">
-        <v>18835</v>
+        <v>479</v>
       </c>
       <c r="I24">
-        <v>3681</v>
+        <v>79</v>
       </c>
       <c r="J24">
-        <v>7819</v>
+        <v>169</v>
       </c>
       <c r="K24">
-        <v>804</v>
+        <v>6</v>
       </c>
       <c r="L24">
-        <v>2210</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>1528</v>
+        <v>44</v>
       </c>
       <c r="N24">
-        <v>1863</v>
+        <v>54</v>
       </c>
       <c r="O24">
-        <v>604</v>
+        <v>30</v>
       </c>
       <c r="P24">
-        <v>3690</v>
+        <v>101</v>
       </c>
       <c r="Q24">
-        <v>1234</v>
+        <v>22</v>
       </c>
       <c r="R24">
-        <v>451</v>
+        <v>13</v>
       </c>
       <c r="S24">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="T24">
-        <v>847</v>
+        <v>31</v>
       </c>
       <c r="U24">
-        <v>1224</v>
+        <v>45</v>
       </c>
       <c r="V24">
-        <v>9694</v>
+        <v>208</v>
       </c>
       <c r="W24">
-        <v>0.471</v>
+        <v>0.467</v>
       </c>
       <c r="X24">
-        <v>0.364</v>
+        <v>0.261</v>
       </c>
       <c r="Y24">
-        <v>0.82</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="Z24">
-        <v>30.8</v>
+        <v>11.4</v>
       </c>
       <c r="AA24">
-        <v>15.9</v>
+        <v>5</v>
       </c>
       <c r="AB24">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="AC24">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AD24" t="s">
         <v>172</v>
@@ -3100,43 +3091,43 @@
         <v>22</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H25">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="I25">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J25">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+      <c r="M25">
+        <v>42</v>
+      </c>
+      <c r="N25">
+        <v>60</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <v>35</v>
+      </c>
+      <c r="Q25">
+        <v>36</v>
+      </c>
+      <c r="R25">
         <v>5</v>
-      </c>
-      <c r="L25">
-        <v>25</v>
-      </c>
-      <c r="M25">
-        <v>43</v>
-      </c>
-      <c r="N25">
-        <v>62</v>
-      </c>
-      <c r="O25">
-        <v>8</v>
-      </c>
-      <c r="P25">
-        <v>38</v>
-      </c>
-      <c r="Q25">
-        <v>41</v>
-      </c>
-      <c r="R25">
-        <v>8</v>
       </c>
       <c r="S25">
         <v>6</v>
@@ -3145,25 +3136,25 @@
         <v>39</v>
       </c>
       <c r="U25">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="V25">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="W25">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="X25">
         <v>0.2</v>
       </c>
       <c r="Y25">
-        <v>0.694</v>
+        <v>0.7</v>
       </c>
       <c r="Z25">
-        <v>10.3</v>
+        <v>11.1</v>
       </c>
       <c r="AA25">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AB25">
         <v>0.9</v>
@@ -3281,76 +3272,76 @@
         <v>21</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>88</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
         <v>24</v>
       </c>
-      <c r="H27">
-        <v>120</v>
-      </c>
-      <c r="I27">
-        <v>11</v>
-      </c>
-      <c r="J27">
-        <v>35</v>
-      </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
         <v>5</v>
       </c>
-      <c r="M27">
-        <v>5</v>
-      </c>
-      <c r="N27">
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <v>14</v>
+      </c>
+      <c r="Q27">
         <v>7</v>
-      </c>
-      <c r="O27">
-        <v>6</v>
-      </c>
-      <c r="P27">
-        <v>24</v>
-      </c>
-      <c r="Q27">
-        <v>9</v>
       </c>
       <c r="R27">
         <v>4</v>
       </c>
       <c r="S27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V27">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="W27">
-        <v>0.314</v>
+        <v>0.333</v>
       </c>
       <c r="X27">
-        <v>0.2</v>
+        <v>0.333</v>
       </c>
       <c r="Y27">
-        <v>0.714</v>
+        <v>0.6</v>
       </c>
       <c r="Z27">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="AA27">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AC27">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD27" t="s">
         <v>172</v>
@@ -3465,76 +3456,76 @@
         <v>19</v>
       </c>
       <c r="F29">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>528</v>
+        <v>51</v>
       </c>
       <c r="H29">
-        <v>17827</v>
+        <v>1558</v>
       </c>
       <c r="I29">
-        <v>4346</v>
+        <v>350</v>
       </c>
       <c r="J29">
-        <v>9332</v>
+        <v>747</v>
       </c>
       <c r="K29">
-        <v>1119</v>
+        <v>73</v>
       </c>
       <c r="L29">
-        <v>2870</v>
+        <v>183</v>
       </c>
       <c r="M29">
-        <v>2031</v>
+        <v>171</v>
       </c>
       <c r="N29">
-        <v>2316</v>
+        <v>196</v>
       </c>
       <c r="O29">
-        <v>407</v>
+        <v>44</v>
       </c>
       <c r="P29">
-        <v>1955</v>
+        <v>191</v>
       </c>
       <c r="Q29">
-        <v>3012</v>
+        <v>275</v>
       </c>
       <c r="R29">
-        <v>699</v>
+        <v>54</v>
       </c>
       <c r="S29">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="T29">
-        <v>1395</v>
+        <v>160</v>
       </c>
       <c r="U29">
-        <v>1171</v>
+        <v>110</v>
       </c>
       <c r="V29">
-        <v>11842</v>
+        <v>944</v>
       </c>
       <c r="W29">
-        <v>0.466</v>
+        <v>0.469</v>
       </c>
       <c r="X29">
-        <v>0.39</v>
+        <v>0.399</v>
       </c>
       <c r="Y29">
-        <v>0.877</v>
+        <v>0.872</v>
       </c>
       <c r="Z29">
-        <v>33.8</v>
+        <v>30.5</v>
       </c>
       <c r="AA29">
-        <v>22.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB29">
         <v>3.7</v>
       </c>
       <c r="AC29">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AD29" t="s">
         <v>172</v>
@@ -3557,76 +3548,76 @@
         <v>21</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>554</v>
+        <v>45</v>
       </c>
       <c r="H30">
-        <v>13967</v>
+        <v>501</v>
       </c>
       <c r="I30">
-        <v>2656</v>
+        <v>51</v>
       </c>
       <c r="J30">
-        <v>6208</v>
+        <v>159</v>
       </c>
       <c r="K30">
-        <v>648</v>
+        <v>13</v>
       </c>
       <c r="L30">
-        <v>1927</v>
+        <v>62</v>
       </c>
       <c r="M30">
-        <v>1179</v>
+        <v>25</v>
       </c>
       <c r="N30">
-        <v>1376</v>
+        <v>29</v>
       </c>
       <c r="O30">
-        <v>303</v>
+        <v>14</v>
       </c>
       <c r="P30">
-        <v>1640</v>
+        <v>53</v>
       </c>
       <c r="Q30">
-        <v>2435</v>
+        <v>71</v>
       </c>
       <c r="R30">
-        <v>387</v>
+        <v>25</v>
       </c>
       <c r="S30">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>1071</v>
+        <v>36</v>
       </c>
       <c r="U30">
-        <v>1076</v>
+        <v>31</v>
       </c>
       <c r="V30">
-        <v>7139</v>
+        <v>140</v>
       </c>
       <c r="W30">
-        <v>0.428</v>
+        <v>0.321</v>
       </c>
       <c r="X30">
-        <v>0.336</v>
+        <v>0.21</v>
       </c>
       <c r="Y30">
-        <v>0.857</v>
+        <v>0.862</v>
       </c>
       <c r="Z30">
-        <v>25.2</v>
+        <v>11.1</v>
       </c>
       <c r="AA30">
-        <v>12.9</v>
+        <v>3.1</v>
       </c>
       <c r="AB30">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="AC30">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="AD30" t="s">
         <v>172</v>
@@ -3649,76 +3640,76 @@
         <v>22</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="H31">
-        <v>1334</v>
+        <v>893</v>
       </c>
       <c r="I31">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="J31">
-        <v>412</v>
+        <v>291</v>
       </c>
       <c r="K31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N31">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="O31">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P31">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="Q31">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="R31">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="S31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T31">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="U31">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="V31">
-        <v>408</v>
+        <v>297</v>
       </c>
       <c r="W31">
-        <v>0.434</v>
+        <v>0.447</v>
       </c>
       <c r="X31">
-        <v>0.182</v>
+        <v>0.15</v>
       </c>
       <c r="Y31">
-        <v>0.754</v>
+        <v>0.872</v>
       </c>
       <c r="Z31">
-        <v>12.1</v>
+        <v>17.5</v>
       </c>
       <c r="AA31">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB31">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="AC31">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="AD31" t="s">
         <v>172</v>
@@ -3833,73 +3824,73 @@
         <v>27</v>
       </c>
       <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>56</v>
+      </c>
+      <c r="H33">
+        <v>934</v>
+      </c>
+      <c r="I33">
+        <v>141</v>
+      </c>
+      <c r="J33">
+        <v>275</v>
+      </c>
+      <c r="K33">
         <v>2</v>
       </c>
-      <c r="G33">
-        <v>125</v>
-      </c>
-      <c r="H33">
-        <v>1969</v>
-      </c>
-      <c r="I33">
-        <v>326</v>
-      </c>
-      <c r="J33">
-        <v>631</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
       <c r="L33">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="M33">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="N33">
-        <v>231</v>
+        <v>100</v>
       </c>
       <c r="O33">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="P33">
-        <v>492</v>
+        <v>226</v>
       </c>
       <c r="Q33">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="R33">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="S33">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="T33">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="U33">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c r="V33">
-        <v>808</v>
+        <v>356</v>
       </c>
       <c r="W33">
-        <v>0.517</v>
+        <v>0.513</v>
       </c>
       <c r="X33">
-        <v>0.158</v>
+        <v>0.333</v>
       </c>
       <c r="Y33">
-        <v>0.662</v>
+        <v>0.72</v>
       </c>
       <c r="Z33">
-        <v>15.8</v>
+        <v>16.7</v>
       </c>
       <c r="AA33">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB33">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AC33">
         <v>0.6</v>
@@ -4014,73 +4005,73 @@
         <v>25</v>
       </c>
       <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>21</v>
+      </c>
+      <c r="H35">
+        <v>108</v>
+      </c>
+      <c r="I35">
+        <v>17</v>
+      </c>
+      <c r="J35">
+        <v>33</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>8</v>
+      </c>
+      <c r="N35">
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <v>14</v>
+      </c>
+      <c r="P35">
+        <v>27</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>6</v>
+      </c>
+      <c r="T35">
         <v>2</v>
       </c>
-      <c r="G35">
-        <v>65</v>
-      </c>
-      <c r="H35">
-        <v>491</v>
-      </c>
-      <c r="I35">
-        <v>67</v>
-      </c>
-      <c r="J35">
-        <v>127</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>46</v>
-      </c>
-      <c r="N35">
-        <v>54</v>
-      </c>
-      <c r="O35">
-        <v>66</v>
-      </c>
-      <c r="P35">
-        <v>132</v>
-      </c>
-      <c r="Q35">
-        <v>17</v>
-      </c>
-      <c r="R35">
-        <v>9</v>
-      </c>
-      <c r="S35">
-        <v>21</v>
-      </c>
-      <c r="T35">
-        <v>24</v>
-      </c>
       <c r="U35">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="V35">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="W35">
-        <v>0.528</v>
+        <v>0.515</v>
       </c>
       <c r="Y35">
-        <v>0.852</v>
+        <v>0.8</v>
       </c>
       <c r="Z35">
-        <v>7.6</v>
+        <v>5.1</v>
       </c>
       <c r="AA35">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="AB35">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AC35">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD35" t="s">
         <v>172</v>
@@ -4103,76 +4094,76 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>593</v>
+        <v>29</v>
       </c>
       <c r="H36">
-        <v>12921</v>
+        <v>266</v>
       </c>
       <c r="I36">
-        <v>1601</v>
+        <v>22</v>
       </c>
       <c r="J36">
-        <v>3628</v>
+        <v>70</v>
       </c>
       <c r="K36">
-        <v>285</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>862</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>588</v>
+        <v>11</v>
       </c>
       <c r="N36">
-        <v>768</v>
+        <v>17</v>
       </c>
       <c r="O36">
-        <v>298</v>
+        <v>5</v>
       </c>
       <c r="P36">
-        <v>1528</v>
+        <v>25</v>
       </c>
       <c r="Q36">
-        <v>1707</v>
+        <v>34</v>
       </c>
       <c r="R36">
-        <v>453</v>
+        <v>7</v>
       </c>
       <c r="S36">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="T36">
-        <v>585</v>
+        <v>12</v>
       </c>
       <c r="U36">
-        <v>895</v>
+        <v>16</v>
       </c>
       <c r="V36">
-        <v>4075</v>
+        <v>58</v>
       </c>
       <c r="W36">
-        <v>0.441</v>
+        <v>0.314</v>
       </c>
       <c r="X36">
-        <v>0.331</v>
+        <v>0.2</v>
       </c>
       <c r="Y36">
-        <v>0.766</v>
+        <v>0.647</v>
       </c>
       <c r="Z36">
-        <v>21.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA36">
-        <v>6.9</v>
+        <v>2</v>
       </c>
       <c r="AB36">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="AC36">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="AD36" t="s">
         <v>172</v>
@@ -4195,76 +4186,76 @@
         <v>19</v>
       </c>
       <c r="F37">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>635</v>
+        <v>66</v>
       </c>
       <c r="H37">
-        <v>13851</v>
+        <v>874</v>
       </c>
       <c r="I37">
-        <v>3014</v>
+        <v>117</v>
       </c>
       <c r="J37">
-        <v>5561</v>
+        <v>236</v>
       </c>
       <c r="K37">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>1293</v>
+        <v>70</v>
       </c>
       <c r="N37">
-        <v>1666</v>
+        <v>105</v>
       </c>
       <c r="O37">
-        <v>1857</v>
+        <v>107</v>
       </c>
       <c r="P37">
-        <v>4833</v>
+        <v>278</v>
       </c>
       <c r="Q37">
-        <v>539</v>
+        <v>8</v>
       </c>
       <c r="R37">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="S37">
-        <v>298</v>
+        <v>23</v>
       </c>
       <c r="T37">
-        <v>974</v>
+        <v>54</v>
       </c>
       <c r="U37">
-        <v>1383</v>
+        <v>87</v>
       </c>
       <c r="V37">
-        <v>7364</v>
+        <v>304</v>
       </c>
       <c r="W37">
-        <v>0.542</v>
+        <v>0.496</v>
       </c>
       <c r="X37">
-        <v>0.287</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>0.776</v>
+        <v>0.667</v>
       </c>
       <c r="Z37">
-        <v>21.8</v>
+        <v>13.2</v>
       </c>
       <c r="AA37">
-        <v>11.6</v>
+        <v>4.6</v>
       </c>
       <c r="AB37">
-        <v>7.6</v>
+        <v>4.2</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="AD37" t="s">
         <v>172</v>
@@ -4379,76 +4370,76 @@
         <v>20</v>
       </c>
       <c r="F39">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>446</v>
+        <v>66</v>
       </c>
       <c r="H39">
-        <v>13137</v>
+        <v>2129</v>
       </c>
       <c r="I39">
-        <v>2250</v>
+        <v>319</v>
       </c>
       <c r="J39">
-        <v>5474</v>
+        <v>769</v>
       </c>
       <c r="K39">
-        <v>711</v>
+        <v>105</v>
       </c>
       <c r="L39">
-        <v>2012</v>
+        <v>276</v>
       </c>
       <c r="M39">
-        <v>1058</v>
+        <v>104</v>
       </c>
       <c r="N39">
-        <v>1313</v>
+        <v>137</v>
       </c>
       <c r="O39">
-        <v>236</v>
+        <v>33</v>
       </c>
       <c r="P39">
-        <v>1377</v>
+        <v>211</v>
       </c>
       <c r="Q39">
-        <v>1769</v>
+        <v>251</v>
       </c>
       <c r="R39">
-        <v>385</v>
+        <v>49</v>
       </c>
       <c r="S39">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="T39">
-        <v>1086</v>
+        <v>171</v>
       </c>
       <c r="U39">
-        <v>884</v>
+        <v>154</v>
       </c>
       <c r="V39">
-        <v>6269</v>
+        <v>847</v>
       </c>
       <c r="W39">
-        <v>0.411</v>
+        <v>0.415</v>
       </c>
       <c r="X39">
-        <v>0.353</v>
+        <v>0.38</v>
       </c>
       <c r="Y39">
-        <v>0.806</v>
+        <v>0.759</v>
       </c>
       <c r="Z39">
-        <v>29.5</v>
+        <v>32.3</v>
       </c>
       <c r="AA39">
-        <v>14.1</v>
+        <v>12.8</v>
       </c>
       <c r="AB39">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AC39">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AD39" t="s">
         <v>172</v>
@@ -4471,76 +4462,76 @@
         <v>21</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H40">
-        <v>534</v>
+        <v>243</v>
       </c>
       <c r="I40">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="J40">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
         <v>10</v>
       </c>
-      <c r="L40">
-        <v>34</v>
-      </c>
       <c r="M40">
+        <v>14</v>
+      </c>
+      <c r="N40">
+        <v>17</v>
+      </c>
+      <c r="O40">
+        <v>9</v>
+      </c>
+      <c r="P40">
         <v>26</v>
       </c>
-      <c r="N40">
-        <v>37</v>
-      </c>
-      <c r="O40">
-        <v>24</v>
-      </c>
-      <c r="P40">
-        <v>65</v>
-      </c>
       <c r="Q40">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="R40">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="S40">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T40">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="U40">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="V40">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="W40">
-        <v>0.382</v>
+        <v>0.39</v>
       </c>
       <c r="X40">
-        <v>0.294</v>
+        <v>0.2</v>
       </c>
       <c r="Y40">
-        <v>0.703</v>
+        <v>0.824</v>
       </c>
       <c r="Z40">
-        <v>14.8</v>
+        <v>12.8</v>
       </c>
       <c r="AA40">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="AB40">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AC40">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AD40" t="s">
         <v>172</v>
@@ -4563,76 +4554,76 @@
         <v>20</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>519</v>
+        <v>64</v>
       </c>
       <c r="H41">
-        <v>16080</v>
+        <v>1534</v>
       </c>
       <c r="I41">
-        <v>3472</v>
+        <v>199</v>
       </c>
       <c r="J41">
-        <v>7071</v>
+        <v>404</v>
       </c>
       <c r="K41">
-        <v>751</v>
+        <v>41</v>
       </c>
       <c r="L41">
-        <v>1968</v>
+        <v>109</v>
       </c>
       <c r="M41">
-        <v>1953</v>
+        <v>68</v>
       </c>
       <c r="N41">
-        <v>2286</v>
+        <v>88</v>
       </c>
       <c r="O41">
-        <v>639</v>
+        <v>104</v>
       </c>
       <c r="P41">
-        <v>3326</v>
+        <v>327</v>
       </c>
       <c r="Q41">
-        <v>1381</v>
+        <v>70</v>
       </c>
       <c r="R41">
-        <v>923</v>
+        <v>85</v>
       </c>
       <c r="S41">
-        <v>346</v>
+        <v>24</v>
       </c>
       <c r="T41">
-        <v>822</v>
+        <v>44</v>
       </c>
       <c r="U41">
-        <v>893</v>
+        <v>88</v>
       </c>
       <c r="V41">
-        <v>9648</v>
+        <v>507</v>
       </c>
       <c r="W41">
-        <v>0.491</v>
+        <v>0.493</v>
       </c>
       <c r="X41">
-        <v>0.382</v>
+        <v>0.376</v>
       </c>
       <c r="Y41">
-        <v>0.854</v>
+        <v>0.773</v>
       </c>
       <c r="Z41">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="AA41">
-        <v>18.6</v>
+        <v>7.9</v>
       </c>
       <c r="AB41">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="AC41">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="AD41" t="s">
         <v>172</v>
@@ -4744,76 +4735,76 @@
         <v>22</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>377</v>
+        <v>46</v>
       </c>
       <c r="H43">
-        <v>5945</v>
+        <v>555</v>
       </c>
       <c r="I43">
-        <v>979</v>
+        <v>97</v>
       </c>
       <c r="J43">
-        <v>2023</v>
+        <v>191</v>
       </c>
       <c r="K43">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>381</v>
+        <v>9</v>
       </c>
       <c r="M43">
-        <v>312</v>
+        <v>21</v>
       </c>
       <c r="N43">
-        <v>407</v>
+        <v>28</v>
       </c>
       <c r="O43">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="P43">
-        <v>1426</v>
+        <v>120</v>
       </c>
       <c r="Q43">
-        <v>301</v>
+        <v>25</v>
       </c>
       <c r="R43">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="S43">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="T43">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="U43">
-        <v>583</v>
+        <v>67</v>
       </c>
       <c r="V43">
-        <v>2395</v>
+        <v>218</v>
       </c>
       <c r="W43">
-        <v>0.484</v>
+        <v>0.508</v>
       </c>
       <c r="X43">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="Y43">
-        <v>0.767</v>
+        <v>0.75</v>
       </c>
       <c r="Z43">
-        <v>15.8</v>
+        <v>12.1</v>
       </c>
       <c r="AA43">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="AB43">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="AC43">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AD43" t="s">
         <v>172</v>
@@ -4836,76 +4827,76 @@
         <v>23</v>
       </c>
       <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>17</v>
+      </c>
+      <c r="H44">
+        <v>115</v>
+      </c>
+      <c r="I44">
+        <v>12</v>
+      </c>
+      <c r="J44">
+        <v>25</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>4</v>
+      </c>
+      <c r="M44">
+        <v>9</v>
+      </c>
+      <c r="N44">
+        <v>19</v>
+      </c>
+      <c r="O44">
+        <v>6</v>
+      </c>
+      <c r="P44">
+        <v>15</v>
+      </c>
+      <c r="Q44">
         <v>5</v>
       </c>
-      <c r="G44">
-        <v>177</v>
-      </c>
-      <c r="H44">
-        <v>1907</v>
-      </c>
-      <c r="I44">
-        <v>129</v>
-      </c>
-      <c r="J44">
-        <v>321</v>
-      </c>
-      <c r="K44">
-        <v>43</v>
-      </c>
-      <c r="L44">
-        <v>122</v>
-      </c>
-      <c r="M44">
-        <v>45</v>
-      </c>
-      <c r="N44">
-        <v>82</v>
-      </c>
-      <c r="O44">
-        <v>47</v>
-      </c>
-      <c r="P44">
-        <v>252</v>
-      </c>
-      <c r="Q44">
-        <v>122</v>
-      </c>
       <c r="R44">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="S44">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="U44">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="V44">
-        <v>346</v>
+        <v>33</v>
       </c>
       <c r="W44">
-        <v>0.402</v>
+        <v>0.48</v>
       </c>
       <c r="X44">
-        <v>0.352</v>
+        <v>0</v>
       </c>
       <c r="Y44">
-        <v>0.549</v>
+        <v>0.474</v>
       </c>
       <c r="Z44">
-        <v>10.8</v>
+        <v>6.8</v>
       </c>
       <c r="AA44">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AB44">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AC44">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="AD44" t="s">
         <v>172</v>
@@ -4928,76 +4919,76 @@
         <v>21</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>456</v>
+        <v>64</v>
       </c>
       <c r="H45">
-        <v>8392</v>
+        <v>779</v>
       </c>
       <c r="I45">
-        <v>1165</v>
+        <v>88</v>
       </c>
       <c r="J45">
-        <v>2752</v>
+        <v>220</v>
       </c>
       <c r="K45">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="L45">
-        <v>916</v>
+        <v>42</v>
       </c>
       <c r="M45">
-        <v>365</v>
+        <v>42</v>
       </c>
       <c r="N45">
-        <v>499</v>
+        <v>59</v>
       </c>
       <c r="O45">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="P45">
-        <v>894</v>
+        <v>92</v>
       </c>
       <c r="Q45">
-        <v>1421</v>
+        <v>131</v>
       </c>
       <c r="R45">
-        <v>300</v>
+        <v>28</v>
       </c>
       <c r="S45">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>560</v>
+        <v>48</v>
       </c>
       <c r="U45">
-        <v>568</v>
+        <v>50</v>
       </c>
       <c r="V45">
-        <v>2997</v>
+        <v>230</v>
       </c>
       <c r="W45">
-        <v>0.423</v>
+        <v>0.4</v>
       </c>
       <c r="X45">
-        <v>0.33</v>
+        <v>0.286</v>
       </c>
       <c r="Y45">
-        <v>0.731</v>
+        <v>0.712</v>
       </c>
       <c r="Z45">
-        <v>18.4</v>
+        <v>12.2</v>
       </c>
       <c r="AA45">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="AB45">
+        <v>1.4</v>
+      </c>
+      <c r="AC45">
         <v>2</v>
-      </c>
-      <c r="AC45">
-        <v>3.1</v>
       </c>
       <c r="AD45" t="s">
         <v>172</v>
@@ -5109,76 +5100,76 @@
         <v>22</v>
       </c>
       <c r="F47">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>567</v>
+        <v>38</v>
       </c>
       <c r="H47">
-        <v>12127</v>
+        <v>331</v>
       </c>
       <c r="I47">
-        <v>1863</v>
+        <v>43</v>
       </c>
       <c r="J47">
-        <v>4095</v>
+        <v>113</v>
       </c>
       <c r="K47">
-        <v>544</v>
+        <v>17</v>
       </c>
       <c r="L47">
-        <v>1393</v>
+        <v>45</v>
       </c>
       <c r="M47">
-        <v>319</v>
+        <v>7</v>
       </c>
       <c r="N47">
-        <v>433</v>
+        <v>7</v>
       </c>
       <c r="O47">
-        <v>267</v>
+        <v>4</v>
       </c>
       <c r="P47">
-        <v>1158</v>
+        <v>33</v>
       </c>
       <c r="Q47">
-        <v>1011</v>
+        <v>34</v>
       </c>
       <c r="R47">
-        <v>377</v>
+        <v>11</v>
       </c>
       <c r="S47">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="T47">
-        <v>509</v>
+        <v>21</v>
       </c>
       <c r="U47">
-        <v>911</v>
+        <v>33</v>
       </c>
       <c r="V47">
-        <v>4589</v>
+        <v>110</v>
       </c>
       <c r="W47">
-        <v>0.455</v>
+        <v>0.381</v>
       </c>
       <c r="X47">
-        <v>0.391</v>
+        <v>0.378</v>
       </c>
       <c r="Y47">
-        <v>0.737</v>
+        <v>1</v>
       </c>
       <c r="Z47">
-        <v>21.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA47">
-        <v>8.1</v>
+        <v>2.9</v>
       </c>
       <c r="AB47">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="AC47">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD47" t="s">
         <v>172</v>
@@ -5201,76 +5192,76 @@
         <v>21</v>
       </c>
       <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>19</v>
+      </c>
+      <c r="H48">
+        <v>169</v>
+      </c>
+      <c r="I48">
+        <v>18</v>
+      </c>
+      <c r="J48">
+        <v>42</v>
+      </c>
+      <c r="K48">
         <v>4</v>
       </c>
-      <c r="G48">
-        <v>132</v>
-      </c>
-      <c r="H48">
-        <v>1464</v>
-      </c>
-      <c r="I48">
-        <v>166</v>
-      </c>
-      <c r="J48">
-        <v>432</v>
-      </c>
-      <c r="K48">
-        <v>47</v>
-      </c>
       <c r="L48">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="M48">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="N48">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="O48">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="P48">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="Q48">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="R48">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="U48">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="V48">
-        <v>430</v>
+        <v>46</v>
       </c>
       <c r="W48">
-        <v>0.384</v>
+        <v>0.429</v>
       </c>
       <c r="X48">
-        <v>0.322</v>
+        <v>0.444</v>
       </c>
       <c r="Y48">
-        <v>0.63</v>
+        <v>0.667</v>
       </c>
       <c r="Z48">
-        <v>11.1</v>
+        <v>8.9</v>
       </c>
       <c r="AA48">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC48">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AD48" t="s">
         <v>172</v>
@@ -5293,76 +5284,76 @@
         <v>22</v>
       </c>
       <c r="F49">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>601</v>
+        <v>17</v>
       </c>
       <c r="H49">
-        <v>16200</v>
+        <v>126</v>
       </c>
       <c r="I49">
-        <v>2652</v>
+        <v>16</v>
       </c>
       <c r="J49">
-        <v>6155</v>
+        <v>54</v>
       </c>
       <c r="K49">
-        <v>890</v>
+        <v>2</v>
       </c>
       <c r="L49">
-        <v>2428</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <v>1054</v>
+        <v>6</v>
       </c>
       <c r="N49">
-        <v>1389</v>
+        <v>8</v>
       </c>
       <c r="O49">
-        <v>584</v>
+        <v>5</v>
       </c>
       <c r="P49">
-        <v>2798</v>
+        <v>16</v>
       </c>
       <c r="Q49">
-        <v>906</v>
+        <v>3</v>
       </c>
       <c r="R49">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="S49">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="T49">
-        <v>723</v>
+        <v>4</v>
       </c>
       <c r="U49">
-        <v>1301</v>
+        <v>12</v>
       </c>
       <c r="V49">
-        <v>7248</v>
+        <v>40</v>
       </c>
       <c r="W49">
-        <v>0.431</v>
+        <v>0.296</v>
       </c>
       <c r="X49">
-        <v>0.367</v>
+        <v>0.118</v>
       </c>
       <c r="Y49">
-        <v>0.759</v>
+        <v>0.75</v>
       </c>
       <c r="Z49">
-        <v>27</v>
+        <v>7.4</v>
       </c>
       <c r="AA49">
-        <v>12.1</v>
+        <v>2.4</v>
       </c>
       <c r="AB49">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="AC49">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="AD49" t="s">
         <v>172</v>
@@ -5385,76 +5376,76 @@
         <v>22</v>
       </c>
       <c r="F50">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>632</v>
+        <v>63</v>
       </c>
       <c r="H50">
-        <v>16148</v>
+        <v>1227</v>
       </c>
       <c r="I50">
-        <v>2797</v>
+        <v>174</v>
       </c>
       <c r="J50">
-        <v>6237</v>
+        <v>436</v>
       </c>
       <c r="K50">
-        <v>522</v>
+        <v>43</v>
       </c>
       <c r="L50">
-        <v>1516</v>
+        <v>124</v>
       </c>
       <c r="M50">
-        <v>1134</v>
+        <v>76</v>
       </c>
       <c r="N50">
-        <v>1457</v>
+        <v>106</v>
       </c>
       <c r="O50">
-        <v>799</v>
+        <v>69</v>
       </c>
       <c r="P50">
-        <v>3384</v>
+        <v>279</v>
       </c>
       <c r="Q50">
-        <v>1054</v>
+        <v>65</v>
       </c>
       <c r="R50">
-        <v>547</v>
+        <v>41</v>
       </c>
       <c r="S50">
-        <v>347</v>
+        <v>42</v>
       </c>
       <c r="T50">
-        <v>1011</v>
+        <v>70</v>
       </c>
       <c r="U50">
-        <v>1814</v>
+        <v>179</v>
       </c>
       <c r="V50">
-        <v>7250</v>
+        <v>467</v>
       </c>
       <c r="W50">
-        <v>0.448</v>
+        <v>0.399</v>
       </c>
       <c r="X50">
-        <v>0.344</v>
+        <v>0.347</v>
       </c>
       <c r="Y50">
-        <v>0.778</v>
+        <v>0.717</v>
       </c>
       <c r="Z50">
-        <v>25.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA50">
-        <v>11.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB50">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="AC50">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="AD50" t="s">
         <v>172</v>
@@ -5477,19 +5468,19 @@
         <v>21</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="H51">
-        <v>542</v>
+        <v>187</v>
       </c>
       <c r="I51">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J51">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -5498,55 +5489,55 @@
         <v>1</v>
       </c>
       <c r="M51">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="N51">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="O51">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="P51">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="Q51">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="R51">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="S51">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="T51">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="U51">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="V51">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="W51">
-        <v>0.485</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="X51">
         <v>0</v>
       </c>
       <c r="Y51">
-        <v>0.597</v>
+        <v>0.44</v>
       </c>
       <c r="Z51">
-        <v>10.6</v>
+        <v>11.7</v>
       </c>
       <c r="AA51">
         <v>2.8</v>
       </c>
       <c r="AB51">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AC51">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD51" t="s">
         <v>172</v>
@@ -5569,76 +5560,76 @@
         <v>25</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="H52">
-        <v>1123</v>
+        <v>424</v>
       </c>
       <c r="I52">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="J52">
-        <v>422</v>
+        <v>150</v>
       </c>
       <c r="K52">
+        <v>10</v>
+      </c>
+      <c r="L52">
         <v>38</v>
       </c>
-      <c r="L52">
-        <v>119</v>
-      </c>
       <c r="M52">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="N52">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="O52">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="P52">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="Q52">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="R52">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="S52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="U52">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="V52">
-        <v>416</v>
+        <v>126</v>
       </c>
       <c r="W52">
-        <v>0.379</v>
+        <v>0.333</v>
       </c>
       <c r="X52">
-        <v>0.319</v>
+        <v>0.263</v>
       </c>
       <c r="Y52">
-        <v>0.644</v>
+        <v>0.593</v>
       </c>
       <c r="Z52">
-        <v>13.1</v>
+        <v>9.6</v>
       </c>
       <c r="AA52">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="AB52">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC52">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AD52" t="s">
         <v>172</v>
@@ -5661,76 +5652,76 @@
         <v>23</v>
       </c>
       <c r="F53">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>440</v>
+        <v>63</v>
       </c>
       <c r="H53">
-        <v>13246</v>
+        <v>1804</v>
       </c>
       <c r="I53">
-        <v>2129</v>
+        <v>248</v>
       </c>
       <c r="J53">
-        <v>4611</v>
+        <v>549</v>
       </c>
       <c r="K53">
-        <v>687</v>
+        <v>60</v>
       </c>
       <c r="L53">
-        <v>1844</v>
+        <v>178</v>
       </c>
       <c r="M53">
-        <v>626</v>
+        <v>43</v>
       </c>
       <c r="N53">
-        <v>878</v>
+        <v>78</v>
       </c>
       <c r="O53">
-        <v>356</v>
+        <v>90</v>
       </c>
       <c r="P53">
-        <v>1972</v>
+        <v>300</v>
       </c>
       <c r="Q53">
-        <v>1201</v>
+        <v>134</v>
       </c>
       <c r="R53">
-        <v>412</v>
+        <v>73</v>
       </c>
       <c r="S53">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="T53">
-        <v>657</v>
+        <v>81</v>
       </c>
       <c r="U53">
-        <v>865</v>
+        <v>142</v>
       </c>
       <c r="V53">
-        <v>5571</v>
+        <v>599</v>
       </c>
       <c r="W53">
-        <v>0.462</v>
+        <v>0.452</v>
       </c>
       <c r="X53">
-        <v>0.373</v>
+        <v>0.337</v>
       </c>
       <c r="Y53">
-        <v>0.713</v>
+        <v>0.551</v>
       </c>
       <c r="Z53">
-        <v>30.1</v>
+        <v>28.6</v>
       </c>
       <c r="AA53">
-        <v>12.7</v>
+        <v>9.5</v>
       </c>
       <c r="AB53">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AC53">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="AD53" t="s">
         <v>172</v>
@@ -5839,76 +5830,76 @@
         <v>21</v>
       </c>
       <c r="F55">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>556</v>
+        <v>41</v>
       </c>
       <c r="H55">
-        <v>17201</v>
+        <v>1404</v>
       </c>
       <c r="I55">
-        <v>2033</v>
+        <v>139</v>
       </c>
       <c r="J55">
-        <v>5203</v>
+        <v>389</v>
       </c>
       <c r="K55">
-        <v>480</v>
+        <v>32</v>
       </c>
       <c r="L55">
-        <v>1474</v>
+        <v>94</v>
       </c>
       <c r="M55">
-        <v>1738</v>
+        <v>126</v>
       </c>
       <c r="N55">
-        <v>2068</v>
+        <v>157</v>
       </c>
       <c r="O55">
-        <v>372</v>
+        <v>21</v>
       </c>
       <c r="P55">
-        <v>2358</v>
+        <v>171</v>
       </c>
       <c r="Q55">
-        <v>4333</v>
+        <v>336</v>
       </c>
       <c r="R55">
-        <v>1050</v>
+        <v>91</v>
       </c>
       <c r="S55">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="T55">
-        <v>1521</v>
+        <v>131</v>
       </c>
       <c r="U55">
-        <v>1453</v>
+        <v>97</v>
       </c>
       <c r="V55">
-        <v>6284</v>
+        <v>436</v>
       </c>
       <c r="W55">
-        <v>0.391</v>
+        <v>0.357</v>
       </c>
       <c r="X55">
-        <v>0.326</v>
+        <v>0.34</v>
       </c>
       <c r="Y55">
-        <v>0.84</v>
+        <v>0.803</v>
       </c>
       <c r="Z55">
-        <v>30.9</v>
+        <v>34.2</v>
       </c>
       <c r="AA55">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="AB55">
         <v>4.2</v>
       </c>
       <c r="AC55">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD55" t="s">
         <v>172</v>
@@ -6023,76 +6014,76 @@
         <v>20</v>
       </c>
       <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>28</v>
+      </c>
+      <c r="H57">
+        <v>237</v>
+      </c>
+      <c r="I57">
+        <v>25</v>
+      </c>
+      <c r="J57">
+        <v>72</v>
+      </c>
+      <c r="K57">
         <v>2</v>
       </c>
-      <c r="G57">
-        <v>38</v>
-      </c>
-      <c r="H57">
-        <v>296</v>
-      </c>
-      <c r="I57">
-        <v>31</v>
-      </c>
-      <c r="J57">
-        <v>94</v>
-      </c>
-      <c r="K57">
-        <v>3</v>
-      </c>
       <c r="L57">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N57">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="O57">
         <v>2</v>
       </c>
       <c r="P57">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q57">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R57">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S57">
         <v>0</v>
       </c>
       <c r="T57">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="U57">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="V57">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="W57">
-        <v>0.33</v>
+        <v>0.347</v>
       </c>
       <c r="X57">
-        <v>0.143</v>
+        <v>0.133</v>
       </c>
       <c r="Y57">
-        <v>0.72</v>
+        <v>0.786</v>
       </c>
       <c r="Z57">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AA57">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AB57">
         <v>0.5</v>
       </c>
       <c r="AC57">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AD57" t="s">
         <v>172</v>
@@ -6115,76 +6106,76 @@
         <v>21</v>
       </c>
       <c r="F58">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>459</v>
+        <v>59</v>
       </c>
       <c r="H58">
-        <v>11459</v>
+        <v>1705</v>
       </c>
       <c r="I58">
-        <v>1224</v>
+        <v>214</v>
       </c>
       <c r="J58">
-        <v>3126</v>
+        <v>534</v>
       </c>
       <c r="K58">
-        <v>489</v>
+        <v>48</v>
       </c>
       <c r="L58">
-        <v>1447</v>
+        <v>157</v>
       </c>
       <c r="M58">
-        <v>381</v>
+        <v>87</v>
       </c>
       <c r="N58">
-        <v>499</v>
+        <v>109</v>
       </c>
       <c r="O58">
-        <v>323</v>
+        <v>42</v>
       </c>
       <c r="P58">
-        <v>1533</v>
+        <v>186</v>
       </c>
       <c r="Q58">
-        <v>845</v>
+        <v>164</v>
       </c>
       <c r="R58">
-        <v>513</v>
+        <v>101</v>
       </c>
       <c r="S58">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="T58">
-        <v>529</v>
+        <v>111</v>
       </c>
       <c r="U58">
-        <v>1058</v>
+        <v>173</v>
       </c>
       <c r="V58">
-        <v>3318</v>
+        <v>563</v>
       </c>
       <c r="W58">
-        <v>0.392</v>
+        <v>0.401</v>
       </c>
       <c r="X58">
-        <v>0.338</v>
+        <v>0.306</v>
       </c>
       <c r="Y58">
-        <v>0.764</v>
+        <v>0.798</v>
       </c>
       <c r="Z58">
-        <v>25</v>
+        <v>28.9</v>
       </c>
       <c r="AA58">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
       <c r="AB58">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AC58">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="AD58" t="s">
         <v>172</v>
@@ -6207,25 +6198,25 @@
         <v>24</v>
       </c>
       <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
         <v>2</v>
       </c>
-      <c r="G59">
-        <v>4</v>
-      </c>
       <c r="H59">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I59">
         <v>4</v>
       </c>
       <c r="J59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K59">
         <v>1</v>
       </c>
       <c r="L59">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M59">
         <v>2</v>
@@ -6234,16 +6225,16 @@
         <v>3</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q59">
         <v>3</v>
       </c>
       <c r="R59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -6252,31 +6243,31 @@
         <v>3</v>
       </c>
       <c r="U59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V59">
         <v>11</v>
       </c>
       <c r="W59">
-        <v>0.222</v>
+        <v>0.267</v>
       </c>
       <c r="X59">
-        <v>0.125</v>
+        <v>0.167</v>
       </c>
       <c r="Y59">
         <v>0.667</v>
       </c>
       <c r="Z59">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA59">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="AB59">
+        <v>2</v>
+      </c>
+      <c r="AC59">
         <v>1.5</v>
-      </c>
-      <c r="AC59">
-        <v>0.8</v>
       </c>
       <c r="AD59" t="s">
         <v>172</v>
@@ -6299,76 +6290,76 @@
         <v>22</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="H60">
-        <v>2605</v>
+        <v>1431</v>
       </c>
       <c r="I60">
+        <v>116</v>
+      </c>
+      <c r="J60">
+        <v>312</v>
+      </c>
+      <c r="K60">
+        <v>44</v>
+      </c>
+      <c r="L60">
+        <v>127</v>
+      </c>
+      <c r="M60">
+        <v>30</v>
+      </c>
+      <c r="N60">
+        <v>44</v>
+      </c>
+      <c r="O60">
+        <v>43</v>
+      </c>
+      <c r="P60">
         <v>233</v>
       </c>
-      <c r="J60">
-        <v>620</v>
-      </c>
-      <c r="K60">
-        <v>58</v>
-      </c>
-      <c r="L60">
-        <v>182</v>
-      </c>
-      <c r="M60">
-        <v>88</v>
-      </c>
-      <c r="N60">
-        <v>139</v>
-      </c>
-      <c r="O60">
-        <v>112</v>
-      </c>
-      <c r="P60">
-        <v>472</v>
-      </c>
       <c r="Q60">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="R60">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="S60">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="T60">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="U60">
-        <v>325</v>
+        <v>176</v>
       </c>
       <c r="V60">
-        <v>612</v>
+        <v>306</v>
       </c>
       <c r="W60">
-        <v>0.376</v>
+        <v>0.372</v>
       </c>
       <c r="X60">
-        <v>0.319</v>
+        <v>0.346</v>
       </c>
       <c r="Y60">
-        <v>0.633</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="Z60">
-        <v>17.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA60">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="AB60">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AC60">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD60" t="s">
         <v>172</v>
@@ -6391,76 +6382,76 @@
         <v>24</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="H61">
-        <v>3749</v>
+        <v>669</v>
       </c>
       <c r="I61">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="J61">
-        <v>1098</v>
+        <v>198</v>
       </c>
       <c r="K61">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>316</v>
+        <v>25</v>
       </c>
       <c r="M61">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="N61">
-        <v>256</v>
+        <v>30</v>
       </c>
       <c r="O61">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="P61">
-        <v>455</v>
+        <v>67</v>
       </c>
       <c r="Q61">
-        <v>651</v>
+        <v>105</v>
       </c>
       <c r="R61">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="S61">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T61">
-        <v>230</v>
+        <v>49</v>
       </c>
       <c r="U61">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="V61">
-        <v>1189</v>
+        <v>183</v>
       </c>
       <c r="W61">
-        <v>0.409</v>
+        <v>0.399</v>
       </c>
       <c r="X61">
-        <v>0.31</v>
+        <v>0.08</v>
       </c>
       <c r="Y61">
-        <v>0.754</v>
+        <v>0.767</v>
       </c>
       <c r="Z61">
-        <v>17.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA61">
         <v>5.5</v>
       </c>
       <c r="AB61">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AC61">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AD61" t="s">
         <v>172</v>
@@ -6483,76 +6474,70 @@
         <v>21</v>
       </c>
       <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>8</v>
+      </c>
+      <c r="H62">
+        <v>69</v>
+      </c>
+      <c r="I62">
+        <v>7</v>
+      </c>
+      <c r="J62">
+        <v>11</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
         <v>5</v>
       </c>
-      <c r="G62">
-        <v>149</v>
-      </c>
-      <c r="H62">
-        <v>1834</v>
-      </c>
-      <c r="I62">
-        <v>243</v>
-      </c>
-      <c r="J62">
-        <v>394</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>110</v>
-      </c>
-      <c r="N62">
-        <v>191</v>
-      </c>
-      <c r="O62">
-        <v>165</v>
-      </c>
       <c r="P62">
-        <v>489</v>
+        <v>20</v>
       </c>
       <c r="Q62">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="R62">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="S62">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="T62">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="U62">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="V62">
-        <v>596</v>
+        <v>14</v>
       </c>
       <c r="W62">
-        <v>0.617</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-      <c r="Y62">
-        <v>0.576</v>
+        <v>0.636</v>
       </c>
       <c r="Z62">
-        <v>12.3</v>
+        <v>8.6</v>
       </c>
       <c r="AA62">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="AB62">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="AC62">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD62" t="s">
         <v>172</v>
@@ -6664,76 +6649,76 @@
         <v>23</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="H64">
-        <v>829</v>
+        <v>541</v>
       </c>
       <c r="I64">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="J64">
-        <v>294</v>
+        <v>180</v>
       </c>
       <c r="K64">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L64">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="M64">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N64">
+        <v>28</v>
+      </c>
+      <c r="O64">
+        <v>17</v>
+      </c>
+      <c r="P64">
         <v>56</v>
       </c>
-      <c r="O64">
-        <v>24</v>
-      </c>
-      <c r="P64">
-        <v>83</v>
-      </c>
       <c r="Q64">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="R64">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="S64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T64">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="U64">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="V64">
-        <v>277</v>
+        <v>167</v>
       </c>
       <c r="W64">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="X64">
-        <v>0.26</v>
+        <v>0.289</v>
       </c>
       <c r="Y64">
         <v>0.714</v>
       </c>
       <c r="Z64">
-        <v>9.9</v>
+        <v>12.3</v>
       </c>
       <c r="AA64">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AB64">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AC64">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AD64" t="s">
         <v>172</v>
@@ -6756,73 +6741,70 @@
         <v>26</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c r="H65">
-        <v>3048</v>
+        <v>766</v>
       </c>
       <c r="I65">
-        <v>269</v>
+        <v>66</v>
       </c>
       <c r="J65">
-        <v>529</v>
+        <v>121</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="N65">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="O65">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="P65">
-        <v>679</v>
+        <v>177</v>
       </c>
       <c r="Q65">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="R65">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="S65">
-        <v>232</v>
+        <v>85</v>
       </c>
       <c r="T65">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="U65">
-        <v>512</v>
+        <v>144</v>
       </c>
       <c r="V65">
-        <v>641</v>
+        <v>161</v>
       </c>
       <c r="W65">
-        <v>0.509</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
+        <v>0.545</v>
       </c>
       <c r="Y65">
-        <v>0.705</v>
+        <v>0.707</v>
       </c>
       <c r="Z65">
-        <v>15</v>
+        <v>13.9</v>
       </c>
       <c r="AA65">
+        <v>2.9</v>
+      </c>
+      <c r="AB65">
         <v>3.2</v>
-      </c>
-      <c r="AB65">
-        <v>3.3</v>
       </c>
       <c r="AC65">
         <v>0.5</v>
@@ -6848,76 +6830,76 @@
         <v>23</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="H66">
-        <v>502</v>
+        <v>179</v>
       </c>
       <c r="I66">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J66">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="K66">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L66">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M66">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N66">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="O66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P66">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="Q66">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="R66">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="S66">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T66">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="U66">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="V66">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="W66">
-        <v>0.444</v>
+        <v>0.419</v>
       </c>
       <c r="X66">
-        <v>0.313</v>
+        <v>0.182</v>
       </c>
       <c r="Y66">
-        <v>0.7</v>
+        <v>0.727</v>
       </c>
       <c r="Z66">
-        <v>7.2</v>
+        <v>8.1</v>
       </c>
       <c r="AA66">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="AB66">
         <v>1.1</v>
       </c>
       <c r="AC66">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="AD66" t="s">
         <v>172</v>
@@ -6940,76 +6922,76 @@
         <v>22</v>
       </c>
       <c r="F67">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>525</v>
+        <v>65</v>
       </c>
       <c r="H67">
-        <v>15182</v>
+        <v>1656</v>
       </c>
       <c r="I67">
-        <v>3091</v>
+        <v>256</v>
       </c>
       <c r="J67">
-        <v>7097</v>
+        <v>571</v>
       </c>
       <c r="K67">
-        <v>1011</v>
+        <v>83</v>
       </c>
       <c r="L67">
-        <v>2781</v>
+        <v>219</v>
       </c>
       <c r="M67">
-        <v>2315</v>
+        <v>154</v>
       </c>
       <c r="N67">
-        <v>2654</v>
+        <v>185</v>
       </c>
       <c r="O67">
-        <v>279</v>
+        <v>48</v>
       </c>
       <c r="P67">
-        <v>1288</v>
+        <v>168</v>
       </c>
       <c r="Q67">
-        <v>2599</v>
+        <v>266</v>
       </c>
       <c r="R67">
-        <v>464</v>
+        <v>53</v>
       </c>
       <c r="S67">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="T67">
-        <v>1221</v>
+        <v>105</v>
       </c>
       <c r="U67">
-        <v>1109</v>
+        <v>121</v>
       </c>
       <c r="V67">
-        <v>9508</v>
+        <v>749</v>
       </c>
       <c r="W67">
-        <v>0.436</v>
+        <v>0.448</v>
       </c>
       <c r="X67">
-        <v>0.364</v>
+        <v>0.379</v>
       </c>
       <c r="Y67">
-        <v>0.872</v>
+        <v>0.832</v>
       </c>
       <c r="Z67">
-        <v>28.9</v>
+        <v>25.5</v>
       </c>
       <c r="AA67">
-        <v>18.1</v>
+        <v>11.5</v>
       </c>
       <c r="AB67">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AC67">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="AD67" t="s">
         <v>172</v>
@@ -7032,76 +7014,76 @@
         <v>23</v>
       </c>
       <c r="F68">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>393</v>
+        <v>42</v>
       </c>
       <c r="H68">
-        <v>7243</v>
+        <v>630</v>
       </c>
       <c r="I68">
-        <v>742</v>
+        <v>57</v>
       </c>
       <c r="J68">
-        <v>1777</v>
+        <v>126</v>
       </c>
       <c r="K68">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>422</v>
+        <v>1</v>
       </c>
       <c r="M68">
-        <v>386</v>
+        <v>52</v>
       </c>
       <c r="N68">
-        <v>484</v>
+        <v>62</v>
       </c>
       <c r="O68">
-        <v>291</v>
+        <v>49</v>
       </c>
       <c r="P68">
-        <v>1010</v>
+        <v>126</v>
       </c>
       <c r="Q68">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="R68">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="S68">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="T68">
-        <v>261</v>
+        <v>24</v>
       </c>
       <c r="U68">
-        <v>675</v>
+        <v>78</v>
       </c>
       <c r="V68">
-        <v>2032</v>
+        <v>166</v>
       </c>
       <c r="W68">
-        <v>0.418</v>
+        <v>0.452</v>
       </c>
       <c r="X68">
-        <v>0.384</v>
+        <v>0</v>
       </c>
       <c r="Y68">
-        <v>0.798</v>
+        <v>0.839</v>
       </c>
       <c r="Z68">
-        <v>18.4</v>
+        <v>15</v>
       </c>
       <c r="AA68">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="AB68">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AC68">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="AD68" t="s">
         <v>172</v>
@@ -7124,76 +7106,73 @@
         <v>23</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>329</v>
+        <v>15</v>
       </c>
       <c r="I69">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="P69">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="Q69">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R69">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S69">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T69">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="U69">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V69">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="W69">
-        <v>0.435</v>
-      </c>
-      <c r="X69">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="Y69">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Z69">
-        <v>8.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="AA69">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="AB69">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="AC69">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD69" t="s">
         <v>172</v>
@@ -7308,76 +7287,76 @@
         <v>21</v>
       </c>
       <c r="F71">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>615</v>
+        <v>66</v>
       </c>
       <c r="H71">
-        <v>20340</v>
+        <v>1608</v>
       </c>
       <c r="I71">
-        <v>4512</v>
+        <v>318</v>
       </c>
       <c r="J71">
-        <v>9824</v>
+        <v>718</v>
       </c>
       <c r="K71">
-        <v>1798</v>
+        <v>111</v>
       </c>
       <c r="L71">
-        <v>4291</v>
+        <v>268</v>
       </c>
       <c r="M71">
-        <v>1173</v>
+        <v>79</v>
       </c>
       <c r="N71">
-        <v>1384</v>
+        <v>91</v>
       </c>
       <c r="O71">
-        <v>273</v>
+        <v>24</v>
       </c>
       <c r="P71">
-        <v>2130</v>
+        <v>161</v>
       </c>
       <c r="Q71">
-        <v>1416</v>
+        <v>133</v>
       </c>
       <c r="R71">
-        <v>561</v>
+        <v>49</v>
       </c>
       <c r="S71">
-        <v>332</v>
+        <v>20</v>
       </c>
       <c r="T71">
-        <v>1053</v>
+        <v>103</v>
       </c>
       <c r="U71">
-        <v>1313</v>
+        <v>155</v>
       </c>
       <c r="V71">
-        <v>11995</v>
+        <v>826</v>
       </c>
       <c r="W71">
-        <v>0.459</v>
+        <v>0.443</v>
       </c>
       <c r="X71">
-        <v>0.419</v>
+        <v>0.414</v>
       </c>
       <c r="Y71">
-        <v>0.848</v>
+        <v>0.868</v>
       </c>
       <c r="Z71">
-        <v>33.1</v>
+        <v>24.4</v>
       </c>
       <c r="AA71">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB71">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="AC71">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AD71" t="s">
         <v>172</v>
@@ -7489,76 +7468,76 @@
         <v>20</v>
       </c>
       <c r="F73">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>619</v>
+        <v>60</v>
       </c>
       <c r="H73">
-        <v>17372</v>
+        <v>1424</v>
       </c>
       <c r="I73">
-        <v>2344</v>
+        <v>194</v>
       </c>
       <c r="J73">
-        <v>4524</v>
+        <v>442</v>
       </c>
       <c r="K73">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="M73">
-        <v>1142</v>
+        <v>106</v>
       </c>
       <c r="N73">
-        <v>1871</v>
+        <v>192</v>
       </c>
       <c r="O73">
-        <v>2115</v>
+        <v>187</v>
       </c>
       <c r="P73">
-        <v>5393</v>
+        <v>389</v>
       </c>
       <c r="Q73">
-        <v>624</v>
+        <v>27</v>
       </c>
       <c r="R73">
-        <v>317</v>
+        <v>27</v>
       </c>
       <c r="S73">
-        <v>447</v>
+        <v>62</v>
       </c>
       <c r="T73">
-        <v>718</v>
+        <v>81</v>
       </c>
       <c r="U73">
-        <v>1438</v>
+        <v>134</v>
       </c>
       <c r="V73">
-        <v>5839</v>
+        <v>494</v>
       </c>
       <c r="W73">
-        <v>0.518</v>
+        <v>0.439</v>
       </c>
       <c r="X73">
-        <v>0.281</v>
+        <v>0</v>
       </c>
       <c r="Y73">
-        <v>0.61</v>
+        <v>0.552</v>
       </c>
       <c r="Z73">
-        <v>28.1</v>
+        <v>23.7</v>
       </c>
       <c r="AA73">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB73">
-        <v>8.699999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="AC73">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD73" t="s">
         <v>172</v>
@@ -7581,19 +7560,19 @@
         <v>20</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="H74">
-        <v>1034</v>
+        <v>568</v>
       </c>
       <c r="I74">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="J74">
-        <v>349</v>
+        <v>209</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -7602,55 +7581,55 @@
         <v>1</v>
       </c>
       <c r="M74">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N74">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="O74">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="P74">
-        <v>269</v>
+        <v>140</v>
       </c>
       <c r="Q74">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R74">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="S74">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="T74">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="U74">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="V74">
-        <v>373</v>
+        <v>205</v>
       </c>
       <c r="W74">
-        <v>0.45</v>
+        <v>0.421</v>
       </c>
       <c r="X74">
         <v>0</v>
       </c>
       <c r="Y74">
-        <v>0.5570000000000001</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="Z74">
-        <v>9.9</v>
+        <v>13.5</v>
       </c>
       <c r="AA74">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="AB74">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="AC74">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AD74" t="s">
         <v>172</v>
@@ -7765,76 +7744,76 @@
         <v>21</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="H76">
-        <v>2455</v>
+        <v>1078</v>
       </c>
       <c r="I76">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="J76">
-        <v>505</v>
+        <v>218</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M76">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="N76">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="O76">
-        <v>225</v>
+        <v>101</v>
       </c>
       <c r="P76">
-        <v>562</v>
+        <v>249</v>
       </c>
       <c r="Q76">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="R76">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="S76">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="T76">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="U76">
-        <v>384</v>
+        <v>156</v>
       </c>
       <c r="V76">
-        <v>590</v>
+        <v>267</v>
       </c>
       <c r="W76">
-        <v>0.521</v>
+        <v>0.537</v>
       </c>
       <c r="X76">
         <v>0</v>
       </c>
       <c r="Y76">
-        <v>0.408</v>
+        <v>0.532</v>
       </c>
       <c r="Z76">
-        <v>15.2</v>
+        <v>18.9</v>
       </c>
       <c r="AA76">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="AB76">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="AC76">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD76" t="s">
         <v>172</v>
@@ -7857,76 +7836,76 @@
         <v>21</v>
       </c>
       <c r="F77">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>591</v>
+        <v>51</v>
       </c>
       <c r="H77">
-        <v>17895</v>
+        <v>812</v>
       </c>
       <c r="I77">
-        <v>4128</v>
+        <v>131</v>
       </c>
       <c r="J77">
-        <v>8275</v>
+        <v>291</v>
       </c>
       <c r="K77">
-        <v>261</v>
+        <v>3</v>
       </c>
       <c r="L77">
-        <v>789</v>
+        <v>8</v>
       </c>
       <c r="M77">
-        <v>968</v>
+        <v>18</v>
       </c>
       <c r="N77">
-        <v>1297</v>
+        <v>34</v>
       </c>
       <c r="O77">
-        <v>1589</v>
+        <v>88</v>
       </c>
       <c r="P77">
-        <v>6040</v>
+        <v>246</v>
       </c>
       <c r="Q77">
-        <v>1517</v>
+        <v>31</v>
       </c>
       <c r="R77">
-        <v>507</v>
+        <v>20</v>
       </c>
       <c r="S77">
-        <v>556</v>
+        <v>34</v>
       </c>
       <c r="T77">
-        <v>1021</v>
+        <v>33</v>
       </c>
       <c r="U77">
-        <v>1495</v>
+        <v>111</v>
       </c>
       <c r="V77">
-        <v>9485</v>
+        <v>283</v>
       </c>
       <c r="W77">
-        <v>0.499</v>
+        <v>0.45</v>
       </c>
       <c r="X77">
-        <v>0.331</v>
+        <v>0.375</v>
       </c>
       <c r="Y77">
-        <v>0.746</v>
+        <v>0.529</v>
       </c>
       <c r="Z77">
-        <v>30.3</v>
+        <v>15.9</v>
       </c>
       <c r="AA77">
-        <v>16</v>
+        <v>5.5</v>
       </c>
       <c r="AB77">
-        <v>10.2</v>
+        <v>4.8</v>
       </c>
       <c r="AC77">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="AD77" t="s">
         <v>172</v>
@@ -7949,76 +7928,76 @@
         <v>21</v>
       </c>
       <c r="F78">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>656</v>
+        <v>66</v>
       </c>
       <c r="H78">
-        <v>22218</v>
+        <v>1792</v>
       </c>
       <c r="I78">
-        <v>4519</v>
+        <v>281</v>
       </c>
       <c r="J78">
-        <v>10803</v>
+        <v>767</v>
       </c>
       <c r="K78">
-        <v>1451</v>
+        <v>69</v>
       </c>
       <c r="L78">
-        <v>4033</v>
+        <v>226</v>
       </c>
       <c r="M78">
-        <v>2596</v>
+        <v>168</v>
       </c>
       <c r="N78">
-        <v>3100</v>
+        <v>213</v>
       </c>
       <c r="O78">
-        <v>382</v>
+        <v>30</v>
       </c>
       <c r="P78">
-        <v>2522</v>
+        <v>234</v>
       </c>
       <c r="Q78">
-        <v>3557</v>
+        <v>289</v>
       </c>
       <c r="R78">
-        <v>846</v>
+        <v>60</v>
       </c>
       <c r="S78">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="T78">
-        <v>1425</v>
+        <v>119</v>
       </c>
       <c r="U78">
-        <v>989</v>
+        <v>79</v>
       </c>
       <c r="V78">
-        <v>13085</v>
+        <v>799</v>
       </c>
       <c r="W78">
-        <v>0.418</v>
+        <v>0.366</v>
       </c>
       <c r="X78">
-        <v>0.36</v>
+        <v>0.305</v>
       </c>
       <c r="Y78">
-        <v>0.837</v>
+        <v>0.789</v>
       </c>
       <c r="Z78">
-        <v>33.9</v>
+        <v>27.2</v>
       </c>
       <c r="AA78">
-        <v>19.9</v>
+        <v>12.1</v>
       </c>
       <c r="AB78">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AC78">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="AD78" t="s">
         <v>172</v>
@@ -8041,76 +8020,76 @@
         <v>20</v>
       </c>
       <c r="F79">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>428</v>
+        <v>66</v>
       </c>
       <c r="H79">
-        <v>8864</v>
+        <v>1418</v>
       </c>
       <c r="I79">
-        <v>1329</v>
+        <v>205</v>
       </c>
       <c r="J79">
-        <v>3064</v>
+        <v>498</v>
       </c>
       <c r="K79">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="L79">
-        <v>838</v>
+        <v>138</v>
       </c>
       <c r="M79">
-        <v>900</v>
+        <v>136</v>
       </c>
       <c r="N79">
-        <v>1267</v>
+        <v>195</v>
       </c>
       <c r="O79">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="P79">
-        <v>1693</v>
+        <v>311</v>
       </c>
       <c r="Q79">
-        <v>293</v>
+        <v>38</v>
       </c>
       <c r="R79">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="S79">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="T79">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="U79">
-        <v>532</v>
+        <v>95</v>
       </c>
       <c r="V79">
-        <v>3809</v>
+        <v>583</v>
       </c>
       <c r="W79">
-        <v>0.434</v>
+        <v>0.412</v>
       </c>
       <c r="X79">
-        <v>0.3</v>
+        <v>0.268</v>
       </c>
       <c r="Y79">
-        <v>0.71</v>
+        <v>0.697</v>
       </c>
       <c r="Z79">
-        <v>20.7</v>
+        <v>21.5</v>
       </c>
       <c r="AA79">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB79">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="AC79">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD79" t="s">
         <v>172</v>
@@ -8133,76 +8112,76 @@
         <v>22</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="H80">
-        <v>1470</v>
+        <v>149</v>
       </c>
       <c r="I80">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="J80">
-        <v>458</v>
+        <v>74</v>
       </c>
       <c r="K80">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="L80">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="M80">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="N80">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="O80">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="P80">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="Q80">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="R80">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="S80">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T80">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="U80">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="V80">
-        <v>537</v>
+        <v>88</v>
       </c>
       <c r="W80">
-        <v>0.421</v>
+        <v>0.5</v>
       </c>
       <c r="X80">
-        <v>0.31</v>
+        <v>0.296</v>
       </c>
       <c r="Y80">
-        <v>0.669</v>
+        <v>0.333</v>
       </c>
       <c r="Z80">
-        <v>13.5</v>
+        <v>6.2</v>
       </c>
       <c r="AA80">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="AB80">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC80">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="AD80" t="s">
         <v>172</v>
@@ -8314,76 +8293,73 @@
         <v>23</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H82">
-        <v>312</v>
+        <v>186</v>
       </c>
       <c r="I82">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="J82">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>0</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M82">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N82">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O82">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="P82">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="Q82">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R82">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="S82">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="T82">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="U82">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="V82">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="W82">
-        <v>0.55</v>
-      </c>
-      <c r="X82">
-        <v>0</v>
+        <v>0.511</v>
       </c>
       <c r="Y82">
-        <v>0.652</v>
+        <v>0.774</v>
       </c>
       <c r="Z82">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AA82">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="AB82">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AC82">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD82" t="s">
         <v>172</v>
